--- a/Proyecto final/Branch 01/KinectsSDKDAR.xlsx
+++ b/Proyecto final/Branch 01/KinectsSDKDAR.xlsx
@@ -15,8 +15,193 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Kapica</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dificultad estimada para su instalacion y aplicación con los lenguajes.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0=Mucha Dificultad al momento de instalarlo, sin Wizard y con poca informacion para seguir el proceso.
+100=Wizard sencillo y con clara explicacion en cada etapa del proceso/Sin wizard pero de muy sencilla instalacion.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dificoltad estimada al momento de configurar los parametros que seran utilizados tales como:
+Nivel de renderazado, Localizacion de archivos de sistema, etc.
+0=Interfaz confuza para realizar modificaciones de empleo y actualizar parametros.
+100=Extremadamente sencilla para realizar modificaciones en su empleo y actualizar parametros de uso</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nivel estimado de comàtibilidad de trabajo en conjunto con otras librerias en lenguajes diferentes midiendo: Cantidad de bugs, Posibilidad de interaccion, Rendimienro del trabajo en conjunto con otras.
+0=Sin compatibilidad con otras librerias.
+100=Totalmente generica y posibilita recibir datos de cualquier tipo y formato.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Pre'cio en Dolares de la herramienta. En caso de ser libre, medir la limitacion de uso(real aplicación sin complicaciones legales)
+0=Muy costosa/De uso totalmente restringido
+100=Gratuita/Total libertad de uso y modificacion.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Nivel de cocumentacion de la librería y comprencion de la misma.
+0=Sin documentacion o muy desactualizada, poco entendible, en idiomas extranjeros unicamente.
+100=Mucha documentacion, clara, en varios idiomas, en internet, consultas on-line, etc.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nivel de compatibilidad con multiples plataformas y posibilidad de errores generados por trasladarse en las mismas.
+0=Unica plataforma de uso/genera conflictos al trasladar.
+100=Multiplataforma y no genera conflictos al trasladar.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Nivel de velocidad al momento de capturar imágenes/video.
+0=Extremadamente lento(Mayor a 1 segundo)
+100=Extremadamente rapido, no satura el sistema y permite un refresco digital.(Menor a 10miliseg)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nivel de variedad de formatos de salida y compatibildad de los mismos con las diferentes plataformas de reproduccion.
+0=Poca variedad de formatos/poco compatibles.
+100=La mayoria de los formatos existentes actualmente y multiplataforma/multireproductor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Nivel de Concurrencia multihilo/multiprocesamiento.
+0=Sin Hilos, sin multiprocesamiento.
+100= Multiples hilos y alta capacidad multiproceso
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nivel de lenguajes de programacion soprtados y portabilidad del codigo sin generar problemas.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0=Monolenguaje y nada de portabilidad.
+100=Multilenguaje y portabilidad sin generar bugs</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>MicrosoftSDK</t>
   </si>
@@ -66,14 +251,20 @@
     <t>Alternativas\ Factores</t>
   </si>
   <si>
-    <t>DAR</t>
+    <t>DAR SDK</t>
+  </si>
+  <si>
+    <t>El proposito principal de este DAR es proveer una ayuda y una vision general de los distintos SDK que pueden utilizarse para la interaccion del equipo Kinect de Microsoft con las distintas plataformas y su nivel de satisfaccion. Teniendo en cuenta que los analisis son subjetivos y estan bajo el criterio de los analizaores, el nivel de exactitud en los resultados puede ser difuso. Aún asi se tomaron los criterios expuestos como los mas influyentes para obtener los mejores resultados.</t>
+  </si>
+  <si>
+    <t>Resultado Final: Se desea utilizar el SDK de MICROSOFT.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,8 +308,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +355,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -294,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -313,6 +531,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A9" sqref="A9:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -619,8 +843,7 @@
     <col min="1" max="1" width="31.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="4" max="5" width="30.5703125" customWidth="1"/>
     <col min="6" max="6" width="23.140625" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
     <col min="8" max="8" width="23.28515625" customWidth="1"/>
@@ -732,17 +955,17 @@
         <v>80</v>
       </c>
       <c r="I4" s="1">
+        <v>90</v>
+      </c>
+      <c r="J4" s="1">
         <v>100</v>
-      </c>
-      <c r="J4" s="1">
-        <v>60</v>
       </c>
       <c r="K4" s="1">
         <v>40</v>
       </c>
       <c r="L4" s="9">
         <f>SUM(B4:K4)</f>
-        <v>715</v>
+        <v>745</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -750,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>45</v>
@@ -781,7 +1004,7 @@
       </c>
       <c r="L5" s="9">
         <f t="shared" ref="L5:L6" si="0">SUM(B5:K5)</f>
-        <v>650</v>
+        <v>640</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1">
@@ -823,12 +1046,58 @@
         <v>705</v>
       </c>
     </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1">
+      <c r="A16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A9:C15"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
